--- a/media/spreadsheets/UseOfFrequency.xlsx
+++ b/media/spreadsheets/UseOfFrequency.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="636" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="636" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Fq vs. No Fq" sheetId="1" r:id="rId1"/>
@@ -1201,7 +1201,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="30">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1263,33 +1263,8 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1308,30 +1283,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1498,6 +1449,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1957,11 +1913,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="159865856"/>
-        <c:axId val="159880320"/>
+        <c:axId val="139923840"/>
+        <c:axId val="139925760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159865856"/>
+        <c:axId val="139923840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +1952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159880320"/>
+        <c:crossAx val="139925760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2004,7 +1960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159880320"/>
+        <c:axId val="139925760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,7 +2002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159865856"/>
+        <c:crossAx val="139923840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2098,9 +2054,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.5447811613251929E-2"/>
+          <c:x val="7.8807145986626873E-2"/>
           <c:y val="4.0612765937836276E-2"/>
-          <c:w val="0.87802588638978629"/>
+          <c:w val="0.90714705123638018"/>
           <c:h val="0.80015270328458432"/>
         </c:manualLayout>
       </c:layout>
@@ -2121,7 +2077,7 @@
                 <a:lumOff val="40000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="15875">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2528,11 +2484,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="160105216"/>
-        <c:axId val="160107136"/>
+        <c:axId val="151311488"/>
+        <c:axId val="151313792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160105216"/>
+        <c:axId val="151311488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,7 +2505,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Match statement [actual types/expected types]</a:t>
+                  <a:t>Match statement [subobjects/case clauses]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2558,7 +2514,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.31812694240053063"/>
+              <c:x val="0.33892777443381195"/>
               <c:y val="0.92205532553370306"/>
             </c:manualLayout>
           </c:layout>
@@ -2567,7 +2523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160107136"/>
+        <c:crossAx val="151313792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2575,7 +2531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160107136"/>
+        <c:axId val="151313792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,17 +2558,17 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="8.9443577743109723E-2"/>
-              <c:y val="0.30428005644007072"/>
+              <c:x val="7.6963078523140924E-2"/>
+              <c:y val="0.30765986075206236"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160105216"/>
+        <c:crossAx val="151311488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2637,8 +2593,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="171" orientation="landscape"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
@@ -2719,11 +2675,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.09516</cdr:x>
-      <cdr:y>0.03887</cdr:y>
+      <cdr:y>0.05408</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.18877</cdr:x>
-      <cdr:y>0.13266</cdr:y>
+      <cdr:y>0.14787</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2732,8 +2688,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="581025" y="146050"/>
-          <a:ext cx="571500" cy="352425"/>
+          <a:off x="581002" y="203208"/>
+          <a:ext cx="571538" cy="352427"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2745,14 +2701,34 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>10858</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>405</a:t>
           </a:r>
         </a:p>
@@ -2762,11 +2738,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.20712</cdr:x>
-      <cdr:y>0.03887</cdr:y>
+      <cdr:y>0.05408</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.30072</cdr:x>
-      <cdr:y>0.13266</cdr:y>
+      <cdr:y>0.14787</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2775,8 +2751,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1264557" y="146050"/>
-          <a:ext cx="571500" cy="352425"/>
+          <a:off x="1264576" y="203208"/>
+          <a:ext cx="571477" cy="352427"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2852,14 +2828,34 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>4352</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>29</a:t>
           </a:r>
         </a:p>
@@ -2869,11 +2865,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.31907</cdr:x>
-      <cdr:y>0.03887</cdr:y>
+      <cdr:y>0.05408</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.41267</cdr:x>
-      <cdr:y>0.13266</cdr:y>
+      <cdr:y>0.14787</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2882,8 +2878,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1948089" y="146050"/>
-          <a:ext cx="571500" cy="352425"/>
+          <a:off x="1948090" y="203208"/>
+          <a:ext cx="571477" cy="352427"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2959,14 +2955,34 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>30132</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>827</a:t>
           </a:r>
         </a:p>
@@ -2976,11 +2992,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.43102</cdr:x>
-      <cdr:y>0.03887</cdr:y>
+      <cdr:y>0.05408</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.52463</cdr:x>
-      <cdr:y>0.13266</cdr:y>
+      <cdr:y>0.14787</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -2989,8 +3005,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2631621" y="146050"/>
-          <a:ext cx="571500" cy="352425"/>
+          <a:off x="2631603" y="203208"/>
+          <a:ext cx="571539" cy="352427"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3066,14 +3082,34 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>11706</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>343</a:t>
           </a:r>
         </a:p>
@@ -3083,11 +3119,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.54298</cdr:x>
-      <cdr:y>0.03887</cdr:y>
+      <cdr:y>0.05408</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.63658</cdr:x>
-      <cdr:y>0.13266</cdr:y>
+      <cdr:y>0.14787</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3096,8 +3132,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3315153" y="146050"/>
-          <a:ext cx="571500" cy="352425"/>
+          <a:off x="3315178" y="203208"/>
+          <a:ext cx="571477" cy="352427"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3173,14 +3209,34 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>36431</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>10</a:t>
           </a:r>
         </a:p>
@@ -3190,11 +3246,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.65493</cdr:x>
-      <cdr:y>0.03887</cdr:y>
+      <cdr:y>0.05408</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.74853</cdr:x>
-      <cdr:y>0.13266</cdr:y>
+      <cdr:y>0.14787</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3203,8 +3259,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3998685" y="146050"/>
-          <a:ext cx="571500" cy="352425"/>
+          <a:off x="3998691" y="203208"/>
+          <a:ext cx="571478" cy="352427"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3280,14 +3336,34 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>2833</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>16</a:t>
           </a:r>
         </a:p>
@@ -3297,11 +3373,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.76688</cdr:x>
-      <cdr:y>0.03887</cdr:y>
+      <cdr:y>0.05408</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.86049</cdr:x>
-      <cdr:y>0.13266</cdr:y>
+      <cdr:y>0.14787</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3310,8 +3386,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4682217" y="146050"/>
-          <a:ext cx="571500" cy="352425"/>
+          <a:off x="4682205" y="203208"/>
+          <a:ext cx="571538" cy="352427"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3387,14 +3463,34 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>160</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>5</a:t>
           </a:r>
         </a:p>
@@ -3404,11 +3500,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.87884</cdr:x>
-      <cdr:y>0.03887</cdr:y>
+      <cdr:y>0.05408</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.97244</cdr:x>
-      <cdr:y>0.13266</cdr:y>
+      <cdr:y>0.14787</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3417,8 +3513,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5365750" y="146050"/>
-          <a:ext cx="571500" cy="352425"/>
+          <a:off x="5365780" y="203208"/>
+          <a:ext cx="571477" cy="352427"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3494,14 +3590,34 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>0</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>1</a:t>
           </a:r>
         </a:p>
@@ -3510,12 +3626,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.02236</cdr:x>
-      <cdr:y>0.03887</cdr:y>
+      <cdr:x>0.00364</cdr:x>
+      <cdr:y>0.05408</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.11596</cdr:x>
-      <cdr:y>0.13266</cdr:y>
+      <cdr:x>0.09724</cdr:x>
+      <cdr:y>0.14787</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -3524,8 +3640,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="136525" y="146050"/>
-          <a:ext cx="571500" cy="352425"/>
+          <a:off x="22220" y="203208"/>
+          <a:ext cx="571477" cy="352427"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -3601,19 +3717,407 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Hits</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:rPr lang="en-US" sz="800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Misses</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10645</cdr:x>
+      <cdr:y>0.70213</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.16396</cdr:x>
+      <cdr:y>0.70213</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="12" name="Straight Connector 11"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="648642" y="2638319"/>
+          <a:ext cx="350421" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.22018</cdr:x>
+      <cdr:y>0.77043</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.27769</cdr:x>
+      <cdr:y>0.77043</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="18" name="Straight Connector 17"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1341611" y="2894982"/>
+          <a:ext cx="350421" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.33313</cdr:x>
+      <cdr:y>0.56519</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.39064</cdr:x>
+      <cdr:y>0.56519</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="19" name="Straight Connector 18"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2029869" y="2123764"/>
+          <a:ext cx="350421" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44659</cdr:x>
+      <cdr:y>0.77043</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.5041</cdr:x>
+      <cdr:y>0.77043</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="20" name="Straight Connector 19"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2721200" y="2894982"/>
+          <a:ext cx="350421" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.56056</cdr:x>
+      <cdr:y>0.80396</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61807</cdr:x>
+      <cdr:y>0.80396</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="21" name="Straight Connector 20"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3415603" y="3020958"/>
+          <a:ext cx="350421" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.67301</cdr:x>
+      <cdr:y>0.82113</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.73052</cdr:x>
+      <cdr:y>0.82113</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="22" name="Straight Connector 21"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4100789" y="3085482"/>
+          <a:ext cx="350421" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78774</cdr:x>
+      <cdr:y>0.82156</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84525</cdr:x>
+      <cdr:y>0.82156</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="23" name="Straight Connector 22"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4799904" y="3087121"/>
+          <a:ext cx="350421" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.90019</cdr:x>
+      <cdr:y>0.82156</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9577</cdr:x>
+      <cdr:y>0.82156</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="24" name="Straight Connector 23"/>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5485089" y="3087121"/>
+          <a:ext cx="350421" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
   </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
@@ -8393,7 +8897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -10265,27 +10769,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O4:O39">
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P39">
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:E39">
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:M39">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S39">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"faster"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10295,7 +10799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:S39">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>$O4&gt;$P4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12126,27 +12630,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:E38">
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:M38">
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O38">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="lessThan">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P38">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="lessThan">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S38">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"faster"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12156,7 +12660,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:S38">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="18" priority="1">
       <formula>$O4&gt;$P4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13990,27 +14494,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O4:O38">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="lessThan">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P38">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:E38">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:M38">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S38">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"faster"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14020,7 +14524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:S38">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$O4&gt;$P4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14155,19 +14659,19 @@
         <v>168788</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O39" si="0">MEDIAN(A5:E5)</f>
+        <f t="shared" ref="O5:O38" si="0">MEDIAN(A5:E5)</f>
         <v>173841</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P39" si="1">MEDIAN(I5:M5)</f>
+        <f t="shared" ref="P5:P38" si="1">MEDIAN(I5:M5)</f>
         <v>168788</v>
       </c>
       <c r="R5" s="28">
-        <f t="shared" ref="R5:R39" si="2">MAX(O5:P5)/MIN(O5:P5)-1</f>
+        <f t="shared" ref="R5:R38" si="2">MAX(O5:P5)/MIN(O5:P5)-1</f>
         <v>2.9936962343294571E-2</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" ref="S5:S39" si="3">IF(O5&lt;P5,"slower","faster")</f>
+        <f t="shared" ref="S5:S38" si="3">IF(O5&lt;P5,"slower","faster")</f>
         <v>faster</v>
       </c>
     </row>
@@ -15856,27 +16360,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O4:O38">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P38">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:E38">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:M38">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S38">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"faster"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15886,7 +16390,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:S38">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$O4&gt;$P4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16018,19 +16522,19 @@
         <v>167386</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O39" si="0">MEDIAN(A5:E5)</f>
+        <f t="shared" ref="O5:O38" si="0">MEDIAN(A5:E5)</f>
         <v>171757</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P39" si="1">MEDIAN(I5:M5)</f>
+        <f t="shared" ref="P5:P38" si="1">MEDIAN(I5:M5)</f>
         <v>169559</v>
       </c>
       <c r="R5" s="28">
-        <f t="shared" ref="R5:R39" si="2">MAX(O5:P5)/MIN(O5:P5)-1</f>
+        <f t="shared" ref="R5:R38" si="2">MAX(O5:P5)/MIN(O5:P5)-1</f>
         <v>1.2963039414009225E-2</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" ref="S5:S39" si="3">IF(O5&lt;P5,"slower","faster")</f>
+        <f t="shared" ref="S5:S38" si="3">IF(O5&lt;P5,"slower","faster")</f>
         <v>faster</v>
       </c>
     </row>
@@ -28773,8 +29277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/media/spreadsheets/UseOfFrequency.xlsx
+++ b/media/spreadsheets/UseOfFrequency.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="636" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="636" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Fq vs. No Fq" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="GCC 4.5.2" sheetId="12" r:id="rId13"/>
     <sheet name="MSVC gnuext PGO" sheetId="14" r:id="rId14"/>
     <sheet name="MSVC gnuext NO PGO" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="299">
   <si>
     <t>AVERAGE</t>
   </si>
@@ -914,6 +915,18 @@
   <si>
     <t>all-ipr2cxx-2012-01-19-17-20.log</t>
   </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Lines</t>
+  </si>
+  <si>
+    <t>MSVC after</t>
+  </si>
+  <si>
+    <t>microseconds faster one</t>
+  </si>
 </sst>
 </file>
 
@@ -1137,7 +1150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1197,11 +1210,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -1444,6 +1479,53 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1913,11 +1995,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="139923840"/>
-        <c:axId val="139925760"/>
+        <c:axId val="90662784"/>
+        <c:axId val="90669056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139923840"/>
+        <c:axId val="90662784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,7 +2034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139925760"/>
+        <c:crossAx val="90669056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1960,7 +2042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139925760"/>
+        <c:axId val="90669056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139923840"/>
+        <c:crossAx val="90662784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2484,11 +2566,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="151311488"/>
-        <c:axId val="151313792"/>
+        <c:axId val="90803584"/>
+        <c:axId val="90805760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151311488"/>
+        <c:axId val="90803584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,7 +2605,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151313792"/>
+        <c:crossAx val="90805760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2531,7 +2613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151313792"/>
+        <c:axId val="90805760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2568,7 +2650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151311488"/>
+        <c:crossAx val="90803584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6684,7 +6766,7 @@
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K4:K37"/>
+      <selection activeCell="K3" sqref="K3:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8895,13 +8977,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4:U39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>286</v>
       </c>
@@ -8916,7 +9000,7 @@
       </c>
       <c r="R1" s="28"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -8931,7 +9015,7 @@
       </c>
       <c r="R2" s="28"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>32484</v>
       </c>
@@ -8981,8 +9065,12 @@
         <f>IF(O4&lt;P4,"slower","faster")</f>
         <v>slower</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <f>MIN(O4:P4)*1000000/2467841</f>
+        <v>536.90655111086983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>163125</v>
       </c>
@@ -9032,8 +9120,12 @@
         <f t="shared" ref="S5:S38" si="3">IF(O5&lt;P5,"slower","faster")</f>
         <v>faster</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <f t="shared" ref="U5:U39" si="4">MIN(O5:P5)*1000000/2467841</f>
+        <v>63553.121939379402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2439</v>
       </c>
@@ -9083,8 +9175,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <f t="shared" si="4"/>
+        <v>780.84447093633662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4504</v>
       </c>
@@ -9134,8 +9230,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <f t="shared" si="4"/>
+        <v>1667.0441896378252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2680</v>
       </c>
@@ -9185,8 +9285,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <f t="shared" si="4"/>
+        <v>893.89875603817268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3540</v>
       </c>
@@ -9236,8 +9340,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <f t="shared" si="4"/>
+        <v>1187.6778123063843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2549</v>
       </c>
@@ -9287,8 +9395,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <f t="shared" si="4"/>
+        <v>764.63597128015942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>15069</v>
       </c>
@@ -9338,8 +9450,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <f t="shared" si="4"/>
+        <v>5908.8085496593985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3388</v>
       </c>
@@ -9389,8 +9505,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <f t="shared" si="4"/>
+        <v>1171.8745251416117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3039</v>
       </c>
@@ -9440,8 +9560,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <f t="shared" si="4"/>
+        <v>1061.2515149882022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>744</v>
       </c>
@@ -9491,8 +9615,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>301.47809360489595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2844</v>
       </c>
@@ -9542,8 +9670,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>942.92946749810869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9410</v>
       </c>
@@ -9593,8 +9725,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>3481.5857261468627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8750</v>
       </c>
@@ -9644,8 +9780,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>3211.3089943801078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7111</v>
       </c>
@@ -9695,8 +9835,12 @@
         <f t="shared" si="3"/>
         <v>faster</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>2559.7273082017846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4738</v>
       </c>
@@ -9746,8 +9890,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <f t="shared" si="4"/>
+        <v>1714.4540511321434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18403</v>
       </c>
@@ -9797,8 +9945,12 @@
         <f t="shared" si="3"/>
         <v>faster</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>6955.8776274484462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5778</v>
       </c>
@@ -9848,8 +10000,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <f t="shared" si="4"/>
+        <v>2137.4958921583684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>175386</v>
       </c>
@@ -9899,8 +10055,12 @@
         <f t="shared" si="3"/>
         <v>faster</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <f t="shared" si="4"/>
+        <v>68619.088506917586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4869</v>
       </c>
@@ -9950,8 +10110,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <f t="shared" si="4"/>
+        <v>1803.1955867497136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16263</v>
       </c>
@@ -10001,8 +10165,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <f t="shared" si="4"/>
+        <v>6352.1110152558449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>38745</v>
       </c>
@@ -10052,8 +10220,12 @@
         <f t="shared" si="3"/>
         <v>faster</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <f t="shared" si="4"/>
+        <v>14698.677913204294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>76234</v>
       </c>
@@ -10103,8 +10275,12 @@
         <f t="shared" si="3"/>
         <v>faster</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <f t="shared" si="4"/>
+        <v>29157.875243988572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>52497</v>
       </c>
@@ -10154,8 +10330,12 @@
         <f t="shared" si="3"/>
         <v>faster</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <f t="shared" si="4"/>
+        <v>20511.856314892248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>186658</v>
       </c>
@@ -10205,8 +10385,12 @@
         <f t="shared" si="3"/>
         <v>faster</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <f t="shared" si="4"/>
+        <v>72340.560027975866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>101015</v>
       </c>
@@ -10256,8 +10440,12 @@
         <f t="shared" si="3"/>
         <v>faster</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>38761.411290273565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6199</v>
       </c>
@@ -10307,8 +10495,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <f t="shared" si="4"/>
+        <v>2254.6023021742485</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>78353</v>
       </c>
@@ -10358,8 +10550,12 @@
         <f t="shared" si="3"/>
         <v>faster</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <f t="shared" si="4"/>
+        <v>30544.917602065936</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>297438</v>
       </c>
@@ -10409,8 +10605,12 @@
         <f t="shared" si="3"/>
         <v>faster</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <f t="shared" si="4"/>
+        <v>115870.91712958817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>176502</v>
       </c>
@@ -10460,8 +10660,12 @@
         <f t="shared" si="3"/>
         <v>faster</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <f t="shared" si="4"/>
+        <v>68893.41736359839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>129656</v>
       </c>
@@ -10511,8 +10715,12 @@
         <f t="shared" si="3"/>
         <v>faster</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>50048.60523834396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6063</v>
       </c>
@@ -10562,8 +10770,12 @@
         <f t="shared" si="3"/>
         <v>slower</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>2267.163889407786</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>40699</v>
       </c>
@@ -10613,8 +10825,12 @@
         <f t="shared" si="3"/>
         <v>faster</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>15847.860538827259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>188627</v>
       </c>
@@ -10664,8 +10880,12 @@
         <f t="shared" si="3"/>
         <v>faster</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <f t="shared" si="4"/>
+        <v>73028.205625889183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>77317</v>
       </c>
@@ -10715,8 +10935,12 @@
         <f t="shared" si="3"/>
         <v>faster</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <f t="shared" si="4"/>
+        <v>30552.211426911213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>188105</v>
       </c>
@@ -10751,45 +10975,49 @@
         <v>180540</v>
       </c>
       <c r="O39">
-        <f t="shared" ref="O39" si="4">MEDIAN(A39:E39)</f>
+        <f t="shared" ref="O39" si="5">MEDIAN(A39:E39)</f>
         <v>187940</v>
       </c>
       <c r="P39">
-        <f t="shared" ref="P39" si="5">MEDIAN(I39:M39)</f>
+        <f t="shared" ref="P39" si="6">MEDIAN(I39:M39)</f>
         <v>180815</v>
       </c>
       <c r="R39" s="28">
-        <f t="shared" ref="R39" si="6">MAX(O39:P39)/MIN(O39:P39)-1</f>
+        <f t="shared" ref="R39" si="7">MAX(O39:P39)/MIN(O39:P39)-1</f>
         <v>3.9404916627492126E-2</v>
       </c>
       <c r="S39" t="str">
-        <f t="shared" ref="S39" si="7">IF(O39&lt;P39,"slower","faster")</f>
+        <f t="shared" ref="S39" si="8">IF(O39&lt;P39,"slower","faster")</f>
         <v>faster</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="4"/>
+        <v>73268.496633292016</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O4:O39">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="lessThan">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P39">
-    <cfRule type="cellIs" dxfId="28" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="lessThan">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:E39">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:M39">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S39">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>"faster"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10799,7 +11027,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:S39">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>$O4&gt;$P4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10811,7 +11039,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12630,27 +12860,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:E38">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:M38">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O38">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="lessThan">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P38">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="lessThan">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S38">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"faster"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12660,7 +12890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:S38">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>$O4&gt;$P4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14494,27 +14724,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O4:O38">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="lessThan">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P38">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="lessThan">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:E38">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:M38">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S38">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"faster"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14524,7 +14754,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:S38">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>$O4&gt;$P4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14536,7 +14766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4:R38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16360,27 +16592,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O4:O38">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="lessThan">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P38">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="lessThan">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:E38">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:M38">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S38">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"faster"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16390,7 +16622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:S38">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$O4&gt;$P4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16402,7 +16634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -18223,27 +18457,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O4:O38">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P38">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:E38">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:M38">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S38">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"faster"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18253,11 +18487,814 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:S38">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$O4&gt;$P4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="28">
+        <f>'MSVC after'!R4</f>
+        <v>0.18943396226415099</v>
+      </c>
+      <c r="F4" s="28">
+        <v>0.18943396226415099</v>
+      </c>
+      <c r="G4">
+        <v>536.90655111086983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="32">
+        <v>5467</v>
+      </c>
+      <c r="E5" s="28">
+        <f>'MSVC after'!R5</f>
+        <v>3.3741607635855875E-2</v>
+      </c>
+      <c r="F5" s="47">
+        <v>3.3741607635855875E-2</v>
+      </c>
+      <c r="G5">
+        <v>63553.121939379402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="32">
+        <v>47</v>
+      </c>
+      <c r="E6" s="28">
+        <f>'MSVC after'!R6</f>
+        <v>0.16087182148417223</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0.16087182148417223</v>
+      </c>
+      <c r="G6">
+        <v>780.84447093633662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="32">
+        <v>98</v>
+      </c>
+      <c r="E7" s="28">
+        <f>'MSVC after'!R7</f>
+        <v>3.0140982012639705E-2</v>
+      </c>
+      <c r="F7" s="28">
+        <v>3.0140982012639705E-2</v>
+      </c>
+      <c r="G7">
+        <v>1667.0441896378252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="32">
+        <v>50</v>
+      </c>
+      <c r="E8" s="28">
+        <f>'MSVC after'!R8</f>
+        <v>0.11786038077969185</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0.11786038077969185</v>
+      </c>
+      <c r="G8">
+        <v>893.89875603817268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="32">
+        <v>61</v>
+      </c>
+      <c r="E9" s="28">
+        <f>'MSVC after'!R9</f>
+        <v>0.10440122824974418</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0.10440122824974418</v>
+      </c>
+      <c r="G9">
+        <v>1187.6778123063843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="32">
+        <v>44</v>
+      </c>
+      <c r="E10" s="28">
+        <f>'MSVC after'!R10</f>
+        <v>0.15262321144674096</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0.15262321144674096</v>
+      </c>
+      <c r="G10">
+        <v>764.63597128015942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="32">
+        <v>338</v>
+      </c>
+      <c r="E11" s="28">
+        <f>'MSVC after'!R11</f>
+        <v>3.4014538472088907E-2</v>
+      </c>
+      <c r="F11" s="28">
+        <v>3.4014538472088907E-2</v>
+      </c>
+      <c r="G11">
+        <v>5908.8085496593985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="32">
+        <v>65</v>
+      </c>
+      <c r="E12" s="28">
+        <f>'MSVC after'!R12</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="F12" s="28">
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="G12">
+        <v>1171.8745251416117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="32">
+        <v>53</v>
+      </c>
+      <c r="E13" s="28">
+        <f>'MSVC after'!R13</f>
+        <v>8.1710576555937386E-2</v>
+      </c>
+      <c r="F13" s="28">
+        <v>8.1710576555937386E-2</v>
+      </c>
+      <c r="G13">
+        <v>1061.2515149882022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="32">
+        <v>51</v>
+      </c>
+      <c r="E14" s="28">
+        <f>'MSVC after'!R14</f>
+        <v>0.21639784946236551</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0.21639784946236551</v>
+      </c>
+      <c r="G14">
+        <v>301.47809360489595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="32">
+        <v>55</v>
+      </c>
+      <c r="E15" s="28">
+        <f>'MSVC after'!R15</f>
+        <v>0.12290502793296088</v>
+      </c>
+      <c r="F15" s="28">
+        <v>0.12290502793296088</v>
+      </c>
+      <c r="G15">
+        <v>942.92946749810869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" s="32">
+        <v>195</v>
+      </c>
+      <c r="E16" s="28">
+        <f>'MSVC after'!R16</f>
+        <v>1.5828677839851091E-2</v>
+      </c>
+      <c r="F16" s="28">
+        <v>1.5828677839851091E-2</v>
+      </c>
+      <c r="G16">
+        <v>3481.5857261468627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="32">
+        <v>195</v>
+      </c>
+      <c r="E17" s="28">
+        <f>'MSVC after'!R17</f>
+        <v>8.5804416403785222E-3</v>
+      </c>
+      <c r="F17" s="28">
+        <v>8.5804416403785222E-3</v>
+      </c>
+      <c r="G17">
+        <v>3211.3089943801078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D18" s="32">
+        <v>144</v>
+      </c>
+      <c r="E18" s="28">
+        <f>'MSVC after'!R18</f>
+        <v>2.0262782966598003E-2</v>
+      </c>
+      <c r="F18" s="47">
+        <v>2.0262782966598003E-2</v>
+      </c>
+      <c r="G18">
+        <v>2559.7273082017846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="32">
+        <v>104</v>
+      </c>
+      <c r="E19" s="28">
+        <f>'MSVC after'!R19</f>
+        <v>8.7449775466792667E-2</v>
+      </c>
+      <c r="F19" s="28">
+        <v>8.7449775466792667E-2</v>
+      </c>
+      <c r="G19">
+        <v>1714.4540511321434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="32">
+        <v>430</v>
+      </c>
+      <c r="E20" s="28">
+        <f>'MSVC after'!R20</f>
+        <v>3.8622859140160726E-2</v>
+      </c>
+      <c r="F20" s="47">
+        <v>3.8622859140160726E-2</v>
+      </c>
+      <c r="G20">
+        <v>6955.8776274484462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="32">
+        <v>98</v>
+      </c>
+      <c r="E21" s="28">
+        <f>'MSVC after'!R21</f>
+        <v>0.10881516587677731</v>
+      </c>
+      <c r="F21" s="28">
+        <v>0.10881516587677731</v>
+      </c>
+      <c r="G21">
+        <v>2137.4958921583684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="32">
+        <v>5477</v>
+      </c>
+      <c r="E22" s="28">
+        <f>'MSVC after'!R22</f>
+        <v>2.7477102414654508E-2</v>
+      </c>
+      <c r="F22" s="47">
+        <v>2.7477102414654508E-2</v>
+      </c>
+      <c r="G22">
+        <v>68619.088506917586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="32">
+        <v>107</v>
+      </c>
+      <c r="E23" s="28">
+        <f>'MSVC after'!R23</f>
+        <v>0.10022471910112363</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0.10022471910112363</v>
+      </c>
+      <c r="G23">
+        <v>1803.1955867497136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="32">
+        <v>588</v>
+      </c>
+      <c r="E24" s="28">
+        <f>'MSVC after'!R24</f>
+        <v>2.3858127073232982E-2</v>
+      </c>
+      <c r="F24" s="28">
+        <v>2.3858127073232982E-2</v>
+      </c>
+      <c r="G24">
+        <v>6352.1110152558449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="32">
+        <v>981</v>
+      </c>
+      <c r="E25" s="28">
+        <f>'MSVC after'!R25</f>
+        <v>2.1668412637150469E-2</v>
+      </c>
+      <c r="F25" s="47">
+        <v>2.1668412637150469E-2</v>
+      </c>
+      <c r="G25">
+        <v>14698.677913204294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" s="32">
+        <v>2356</v>
+      </c>
+      <c r="E26" s="28">
+        <f>'MSVC after'!R26</f>
+        <v>2.6460247092013223E-2</v>
+      </c>
+      <c r="F26" s="47">
+        <v>2.6460247092013223E-2</v>
+      </c>
+      <c r="G26">
+        <v>29157.875243988572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" s="32">
+        <v>1521</v>
+      </c>
+      <c r="E27" s="28">
+        <f>'MSVC after'!R27</f>
+        <v>1.5310154089292816E-2</v>
+      </c>
+      <c r="F27" s="47">
+        <v>1.5310154089292816E-2</v>
+      </c>
+      <c r="G27">
+        <v>20511.856314892248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>270</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D28" s="32">
+        <v>5981</v>
+      </c>
+      <c r="E28" s="28">
+        <f>'MSVC after'!R28</f>
+        <v>3.6252625682677397E-2</v>
+      </c>
+      <c r="F28" s="47">
+        <v>3.6252625682677397E-2</v>
+      </c>
+      <c r="G28">
+        <v>72340.560027975866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D29" s="32">
+        <v>3171</v>
+      </c>
+      <c r="E29" s="28">
+        <f>'MSVC after'!R29</f>
+        <v>4.3331904617539774E-2</v>
+      </c>
+      <c r="F29" s="47">
+        <v>4.3331904617539774E-2</v>
+      </c>
+      <c r="G29">
+        <v>38761.411290273565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>273</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="32">
+        <v>156</v>
+      </c>
+      <c r="E30" s="28">
+        <f>'MSVC after'!R30</f>
+        <v>7.9439252336448662E-2</v>
+      </c>
+      <c r="F30" s="28">
+        <v>7.9439252336448662E-2</v>
+      </c>
+      <c r="G30">
+        <v>2254.6023021742485</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="32">
+        <v>2481</v>
+      </c>
+      <c r="E31" s="28">
+        <f>'MSVC after'!R31</f>
+        <v>3.6972671796232426E-2</v>
+      </c>
+      <c r="F31" s="47">
+        <v>3.6972671796232426E-2</v>
+      </c>
+      <c r="G31">
+        <v>30544.917602065936</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="32">
+        <v>9851</v>
+      </c>
+      <c r="E32" s="28">
+        <f>'MSVC after'!R32</f>
+        <v>3.6041139915580001E-2</v>
+      </c>
+      <c r="F32" s="47">
+        <v>3.6041139915580001E-2</v>
+      </c>
+      <c r="G32">
+        <v>115870.91712958817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="32">
+        <v>5563</v>
+      </c>
+      <c r="E33" s="28">
+        <f>'MSVC after'!R33</f>
+        <v>3.2231881330212042E-2</v>
+      </c>
+      <c r="F33" s="47">
+        <v>3.2231881330212042E-2</v>
+      </c>
+      <c r="G33">
+        <v>68893.41736359839</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" s="32">
+        <v>3907</v>
+      </c>
+      <c r="E34" s="28">
+        <f>'MSVC after'!R34</f>
+        <v>3.489539477945458E-2</v>
+      </c>
+      <c r="F34" s="47">
+        <v>3.489539477945458E-2</v>
+      </c>
+      <c r="G34">
+        <v>50048.60523834396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="32">
+        <v>145</v>
+      </c>
+      <c r="E35" s="28">
+        <f>'MSVC after'!R35</f>
+        <v>8.1143878462913266E-2</v>
+      </c>
+      <c r="F35" s="28">
+        <v>8.1143878462913266E-2</v>
+      </c>
+      <c r="G35">
+        <v>2267.163889407786</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="32">
+        <v>1095</v>
+      </c>
+      <c r="E36" s="28">
+        <f>'MSVC after'!R36</f>
+        <v>2.296087957044235E-2</v>
+      </c>
+      <c r="F36" s="47">
+        <v>2.296087957044235E-2</v>
+      </c>
+      <c r="G36">
+        <v>15847.860538827259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>280</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="28">
+        <f>'MSVC after'!R37</f>
+        <v>4.6636925569575327E-2</v>
+      </c>
+      <c r="F37" s="47">
+        <v>4.6636925569575327E-2</v>
+      </c>
+      <c r="G37">
+        <v>73028.205625889183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="32">
+        <v>1551</v>
+      </c>
+      <c r="E38" s="28">
+        <f>'MSVC after'!R38</f>
+        <v>1.0994986604419221E-2</v>
+      </c>
+      <c r="F38" s="47">
+        <v>1.0994986604419221E-2</v>
+      </c>
+      <c r="G38">
+        <v>30552.211426911213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>282</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" s="34">
+        <v>5985</v>
+      </c>
+      <c r="E39" s="28">
+        <f>'MSVC after'!R39</f>
+        <v>3.9404916627492126E-2</v>
+      </c>
+      <c r="F39" s="47">
+        <v>3.9404916627492126E-2</v>
+      </c>
+      <c r="G39">
+        <v>73268.496633292016</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{9233C2EC-39AC-478A-9352-E76AB2625998}">
+            <xm:f>'MSVC after'!$O4&gt;'MSVC after'!$P4</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E4:E39</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -29277,7 +30314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
